--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,54 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>scary</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -115,49 +109,64 @@
     <t>better</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -640,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -690,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9134615384615384</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7192982456140351</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>0.6896551724137931</v>
@@ -840,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6533333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.644927536231884</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.5277777777777778</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.4166666666666667</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2595628415300547</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>813</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5869565217391305</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C15">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.2542372881355932</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2461538461538462</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1290,13 +1299,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.1647058823529412</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1340,13 +1349,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5142857142857142</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1358,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.1368421052631579</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>82</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1390,13 +1399,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5106382978723404</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1408,119 +1417,71 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>0.06174698795180723</v>
-      </c>
-      <c r="L19">
-        <v>41</v>
-      </c>
-      <c r="M19">
-        <v>41</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.05</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>62</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.03246753246753246</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1532,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>596</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.03072983354673495</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1558,33 +1519,163 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>757</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.05271084337349398</v>
+      </c>
+      <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24">
+        <v>0.04985337243401759</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K23">
-        <v>0.02764976958525346</v>
-      </c>
-      <c r="L23">
-        <v>48</v>
-      </c>
-      <c r="M23">
-        <v>48</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1688</v>
+      <c r="K25">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>0.97</v>
+      </c>
+      <c r="O26">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>0.02131336405529954</v>
+      </c>
+      <c r="L28">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>37</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
